--- a/data/trans_dic/P10_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P10_2_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,56</t>
+          <t>0,87; 7,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 12,27</t>
+          <t>3,65; 12,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 13,2</t>
+          <t>3,43; 13,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 12,04</t>
+          <t>1,97; 10,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 11,46</t>
+          <t>3,17; 12,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 20,78</t>
+          <t>7,99; 21,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 19,98</t>
+          <t>6,63; 19,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 14,02</t>
+          <t>6,44; 13,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,73</t>
+          <t>2,42; 7,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 14,47</t>
+          <t>6,67; 14,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 14,11</t>
+          <t>5,94; 14,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,01</t>
+          <t>5,13; 10,77</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 5,83</t>
+          <t>2,7; 5,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,82</t>
+          <t>4,52; 8,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,05</t>
+          <t>3,96; 8,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,03</t>
+          <t>3,95; 7,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,94</t>
+          <t>3,43; 7,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 18,1</t>
+          <t>12,18; 18,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 14,11</t>
+          <t>8,64; 13,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,96</t>
+          <t>7,98; 11,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,81</t>
+          <t>3,32; 5,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 12,66</t>
+          <t>8,89; 12,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 10,25</t>
+          <t>6,93; 10,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,43</t>
+          <t>6,48; 9,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 6,88</t>
+          <t>3,99; 6,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,15</t>
+          <t>5,77; 9,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,2</t>
+          <t>2,76; 5,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,78</t>
+          <t>3,89; 7,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,13</t>
+          <t>5,72; 9,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 16,94</t>
+          <t>12,55; 17,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 12,61</t>
+          <t>8,79; 12,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 12,04</t>
+          <t>8,79; 12,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 7,4</t>
+          <t>5,13; 7,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 12,33</t>
+          <t>9,62; 12,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,62</t>
+          <t>6,06; 8,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 9,01</t>
+          <t>6,77; 9,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,51</t>
+          <t>4,66; 8,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,96</t>
+          <t>3,99; 8,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,9</t>
+          <t>3,41; 6,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 10,49</t>
+          <t>6,0; 10,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,8</t>
+          <t>9,98; 15,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 15,64</t>
+          <t>10,83; 15,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,92</t>
+          <t>9,17; 13,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 12,67</t>
+          <t>6,66; 12,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,86; 10,94</t>
+          <t>7,88; 10,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,06</t>
+          <t>7,98; 11,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 9,61</t>
+          <t>6,75; 9,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,85</t>
+          <t>7,26; 10,91</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,0</t>
+          <t>3,97; 6,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,92</t>
+          <t>5,24; 8,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,79</t>
+          <t>5,25; 8,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,85</t>
+          <t>4,02; 6,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,22</t>
+          <t>7,79; 11,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,53; 15,87</t>
+          <t>11,38; 15,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,98</t>
+          <t>7,95; 12,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,53; 14,63</t>
+          <t>10,56; 14,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 8,71</t>
+          <t>6,31; 8,65</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 11,87</t>
+          <t>9,05; 11,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 9,71</t>
+          <t>7,2; 9,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 10,37</t>
+          <t>7,93; 10,49</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,07</t>
+          <t>4,5; 5,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,73</t>
+          <t>5,86; 7,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,21</t>
+          <t>4,62; 6,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,8</t>
+          <t>5,07; 6,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,59; 9,47</t>
+          <t>7,61; 9,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,89; 15,13</t>
+          <t>12,77; 15,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,53; 11,84</t>
+          <t>9,62; 11,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,59; 11,84</t>
+          <t>9,6; 11,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,57</t>
+          <t>6,28; 7,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,18</t>
+          <t>9,71; 11,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,42; 8,75</t>
+          <t>7,45; 8,72</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,16</t>
+          <t>7,82; 9,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P10_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P10_2_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,17</t>
+          <t>0,89; 7,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,67</t>
+          <t>3,61; 12,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 13,46</t>
+          <t>3,34; 14,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 12,43</t>
+          <t>3,11; 11,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 21,6</t>
+          <t>7,68; 21,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 19,04</t>
+          <t>6,74; 20,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,79</t>
+          <t>2,54; 7,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,68</t>
+          <t>6,75; 14,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,94; 14,12</t>
+          <t>6,39; 15,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,81</t>
+          <t>2,66; 5,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,91</t>
+          <t>4,35; 8,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,0</t>
+          <t>4,01; 8,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,23</t>
+          <t>3,35; 7,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 18,29</t>
+          <t>12,11; 18,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,89</t>
+          <t>8,91; 14,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,79</t>
+          <t>3,42; 5,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 12,58</t>
+          <t>9,06; 12,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 10,29</t>
+          <t>7,02; 10,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,86</t>
+          <t>3,93; 6,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,31</t>
+          <t>5,81; 9,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,23</t>
+          <t>2,86; 5,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,3</t>
+          <t>5,67; 9,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,55; 17,16</t>
+          <t>12,37; 16,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,79; 12,88</t>
+          <t>8,71; 12,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,38</t>
+          <t>5,18; 7,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 12,52</t>
+          <t>9,53; 12,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 8,54</t>
+          <t>6,13; 8,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,39</t>
+          <t>4,62; 8,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,0</t>
+          <t>4,14; 8,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,89</t>
+          <t>3,44; 6,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,98; 15,15</t>
+          <t>9,87; 14,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 15,7</t>
+          <t>10,56; 15,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,89</t>
+          <t>9,26; 14,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 10,95</t>
+          <t>7,8; 10,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,21</t>
+          <t>7,88; 10,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 9,69</t>
+          <t>6,83; 9,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 6,85</t>
+          <t>4,05; 6,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,76</t>
+          <t>5,34; 9,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,6</t>
+          <t>5,2; 8,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 11,27</t>
+          <t>7,8; 11,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,38; 15,53</t>
+          <t>11,3; 15,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,95; 12,07</t>
+          <t>8,01; 11,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 8,65</t>
+          <t>6,32; 8,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,05; 11,75</t>
+          <t>9,1; 11,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 9,62</t>
+          <t>7,17; 9,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,98</t>
+          <t>4,49; 6,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,7</t>
+          <t>5,91; 7,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,18</t>
+          <t>4,6; 6,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,61; 9,53</t>
+          <t>7,55; 9,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,16</t>
+          <t>12,9; 15,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 11,78</t>
+          <t>9,56; 11,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,53</t>
+          <t>6,28; 7,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,2</t>
+          <t>9,68; 11,23</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,45; 8,72</t>
+          <t>7,41; 8,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
